--- a/excel/collective/zestawy_dla_uczniow/zestaw_049.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_049.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
   <si>
     <t>ZESTAW ZADAŃ NR 49 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Julia Bednarska</t>
-  </si>
-  <si>
-    <t>Aleksander Zieliński</t>
-  </si>
-  <si>
-    <t>Natalia Piekarska</t>
-  </si>
-  <si>
-    <t>Zuzanna Wójcik</t>
-  </si>
-  <si>
-    <t>Szymon Jankowski</t>
+    <t>Zuzanna Borkowska</t>
+  </si>
+  <si>
+    <t>Kacper Grabowski</t>
+  </si>
+  <si>
+    <t>Jakub Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Anna Olszewska</t>
+  </si>
+  <si>
+    <t>Julia Borkowska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>3,50</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>13,60</t>
+  </si>
+  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>4,70</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>5,70</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,10</t>
+    <t>6,60</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>5,80</t>
   </si>
   <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,30</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>16,20</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>10,50</t>
+    <t>1,40</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>2,20</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,28 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>28,40</t>
+    <t>9,81</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>15,20</t>
+    <t>30,57</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
+    <t>8,97</t>
+  </si>
+  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>6,58</t>
+    <t>6,80</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>13,11</t>
+    <t>3,17</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -250,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>23,04</t>
-  </si>
-  <si>
-    <t>13,15</t>
-  </si>
-  <si>
-    <t>27,11</t>
-  </si>
-  <si>
-    <t>17,86</t>
-  </si>
-  <si>
-    <t>19,19</t>
+    <t>30,42</t>
+  </si>
+  <si>
+    <t>28,76</t>
+  </si>
+  <si>
+    <t>6,45</t>
+  </si>
+  <si>
+    <t>28,44</t>
+  </si>
+  <si>
+    <t>5,81</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -271,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>2,56</t>
-  </si>
-  <si>
-    <t>10,47</t>
-  </si>
-  <si>
-    <t>25,09</t>
-  </si>
-  <si>
-    <t>8,02</t>
-  </si>
-  <si>
-    <t>22,24</t>
+    <t>2,95</t>
+  </si>
+  <si>
+    <t>19,61</t>
+  </si>
+  <si>
+    <t>17,07</t>
+  </si>
+  <si>
+    <t>21,48</t>
+  </si>
+  <si>
+    <t>3,18</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -337,46 +340,49 @@
     <t>Czy pasek?</t>
   </si>
   <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Sadowska</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Kamiński</t>
+  </si>
+  <si>
     <t>Jan</t>
   </si>
   <si>
+    <t>Kowalczyk</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Woźniak</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
     <t>Grabowski</t>
   </si>
   <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>Rogalska</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Urbaniak</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Król</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Zawadzka</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Kwiatkowski</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -412,136 +418,112 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Maja Piekarska</t>
-  </si>
-  <si>
-    <t>25.06.1990</t>
-  </si>
-  <si>
-    <t>10 309,00 zł</t>
+    <t>Natalia Rogalska</t>
+  </si>
+  <si>
+    <t>05.07.2000</t>
+  </si>
+  <si>
+    <t>4 547,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Król</t>
+  </si>
+  <si>
+    <t>15.05.1978</t>
+  </si>
+  <si>
+    <t>4 922,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Wójcik</t>
+  </si>
+  <si>
+    <t>16.02.1976</t>
+  </si>
+  <si>
+    <t>9 190,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Kowalski</t>
+  </si>
+  <si>
+    <t>25.10.1993</t>
+  </si>
+  <si>
+    <t>4 781,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Mazur</t>
+  </si>
+  <si>
+    <t>26.12.2002</t>
+  </si>
+  <si>
+    <t>5 459,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Wojciechowski</t>
+  </si>
+  <si>
+    <t>17.12.1998</t>
+  </si>
+  <si>
+    <t>14 500,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Olszewska</t>
+  </si>
+  <si>
+    <t>06.03.1998</t>
+  </si>
+  <si>
+    <t>9 456,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Kamiński</t>
+  </si>
+  <si>
+    <t>14.05.1997</t>
+  </si>
+  <si>
+    <t>12 468,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Sadowska</t>
+  </si>
+  <si>
+    <t>18.04.1979</t>
+  </si>
+  <si>
+    <t>10 370,00 zł</t>
   </si>
   <si>
     <t>Hanna Sikorska</t>
   </si>
   <si>
-    <t>11.02.2003</t>
-  </si>
-  <si>
-    <t>5 961,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Wójcik</t>
-  </si>
-  <si>
-    <t>12.05.1986</t>
-  </si>
-  <si>
-    <t>10 792,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Wiśniewski</t>
-  </si>
-  <si>
-    <t>01.02.1979</t>
-  </si>
-  <si>
-    <t>7 072,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Kozłowski</t>
-  </si>
-  <si>
-    <t>10.04.1999</t>
-  </si>
-  <si>
-    <t>12 338,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Woźniak</t>
-  </si>
-  <si>
-    <t>01.01.1995</t>
-  </si>
-  <si>
-    <t>12 118,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Nowak</t>
-  </si>
-  <si>
-    <t>02.11.1995</t>
-  </si>
-  <si>
-    <t>11 296,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>05.04.2001</t>
-  </si>
-  <si>
-    <t>12 803,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Grabowski</t>
-  </si>
-  <si>
-    <t>01.04.1998</t>
-  </si>
-  <si>
-    <t>4 860,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Piotrowski</t>
-  </si>
-  <si>
-    <t>04.06.1992</t>
-  </si>
-  <si>
-    <t>10 419,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Czarnecka</t>
-  </si>
-  <si>
-    <t>14.08.2005</t>
-  </si>
-  <si>
-    <t>6 579,00 zł</t>
-  </si>
-  <si>
-    <t>22.12.1986</t>
-  </si>
-  <si>
-    <t>3 798,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Maciejewska</t>
-  </si>
-  <si>
-    <t>23.12.1991</t>
-  </si>
-  <si>
-    <t>6 637,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Lewandowski</t>
-  </si>
-  <si>
-    <t>23.05.1976</t>
-  </si>
-  <si>
-    <t>10 496,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Wilk</t>
-  </si>
-  <si>
-    <t>23.05.1983</t>
-  </si>
-  <si>
-    <t>4 443,00 zł</t>
+    <t>09.02.1975</t>
+  </si>
+  <si>
+    <t>11 177,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Urbaniak</t>
+  </si>
+  <si>
+    <t>08.06.1984</t>
+  </si>
+  <si>
+    <t>8 119,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Kwiatkowski</t>
+  </si>
+  <si>
+    <t>02.06.1997</t>
+  </si>
+  <si>
+    <t>6 758,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -613,301 +595,304 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 448,00 zł</t>
-  </si>
-  <si>
-    <t>2 013,00 zł</t>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 316,00 zł</t>
+  </si>
+  <si>
+    <t>1 527,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 421,00 zł</t>
+  </si>
+  <si>
+    <t>1 563,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 359,00 zł</t>
+  </si>
+  <si>
+    <t>1 767,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 397,00 zł</t>
+  </si>
+  <si>
+    <t>1 872,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>892,00 zł</t>
+  </si>
+  <si>
+    <t>1 008,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>1 453,00 zł</t>
+  </si>
+  <si>
+    <t>1 773,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>1 224,00 zł</t>
+  </si>
+  <si>
+    <t>1 628,00 zł</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 389,00 zł</t>
+  </si>
+  <si>
+    <t>1 583,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 067,00 zł</t>
+  </si>
+  <si>
+    <t>1 451,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>1 016,00 zł</t>
+  </si>
+  <si>
+    <t>1 138,00 zł</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 494,00 zł</t>
+  </si>
+  <si>
+    <t>1 882,00 zł</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 183,00 zł</t>
+  </si>
+  <si>
+    <t>1 550,00 zł</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 013,00 zł</t>
+  </si>
+  <si>
+    <t>1 266,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>1 340,00 zł</t>
+  </si>
+  <si>
+    <t>1 702,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 353,00 zł</t>
+  </si>
+  <si>
+    <t>1 827,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>1 070,00 zł</t>
+  </si>
+  <si>
+    <t>1 305,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>1 123,00 zł</t>
+  </si>
+  <si>
+    <t>1 561,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 365,00 zł</t>
+  </si>
+  <si>
+    <t>1 747,00 zł</t>
   </si>
   <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>917,00 zł</t>
-  </si>
-  <si>
-    <t>1 110,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 255,00 zł</t>
-  </si>
-  <si>
-    <t>1 594,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
+    <t>537,00 zł</t>
+  </si>
+  <si>
+    <t>709,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>1 222,00 zł</t>
+  </si>
+  <si>
+    <t>1 589,00 zł</t>
+  </si>
+  <si>
+    <t>1 006,00 zł</t>
+  </si>
+  <si>
+    <t>1 127,00 zł</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 128,00 zł</t>
+  </si>
+  <si>
+    <t>1 212,00 zł</t>
+  </si>
+  <si>
+    <t>1 697,00 zł</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>721,00 zł</t>
-  </si>
-  <si>
-    <t>880,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>999,00 zł</t>
-  </si>
-  <si>
-    <t>1 379,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>817,00 zł</t>
-  </si>
-  <si>
-    <t>915,00 zł</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 059,00 zł</t>
-  </si>
-  <si>
-    <t>1 281,00 zł</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>882,00 zł</t>
-  </si>
-  <si>
-    <t>1 182,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>572,00 zł</t>
-  </si>
-  <si>
-    <t>755,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>611,00 zł</t>
-  </si>
-  <si>
-    <t>843,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 120,00 zł</t>
-  </si>
-  <si>
-    <t>1 254,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>667,00 zł</t>
-  </si>
-  <si>
-    <t>754,00 zł</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 301,00 zł</t>
-  </si>
-  <si>
-    <t>1 509,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>1 434,00 zł</t>
-  </si>
-  <si>
-    <t>1 907,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>1 352,00 zł</t>
-  </si>
-  <si>
-    <t>1 649,00 zł</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 001,00 zł</t>
-  </si>
-  <si>
-    <t>1 111,00 zł</t>
-  </si>
-  <si>
-    <t>1 283,00 zł</t>
-  </si>
-  <si>
-    <t>1 796,00 zł</t>
+    <t>1 076,00 zł</t>
+  </si>
+  <si>
+    <t>1 399,00 zł</t>
   </si>
   <si>
     <t>lubelskie</t>
   </si>
   <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 045,00 zł</t>
-  </si>
-  <si>
-    <t>1 275,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>742,00 zł</t>
-  </si>
-  <si>
-    <t>905,00 zł</t>
-  </si>
-  <si>
-    <t>1 158,00 zł</t>
-  </si>
-  <si>
-    <t>1 529,00 zł</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 490,00 zł</t>
-  </si>
-  <si>
-    <t>1 713,00 zł</t>
-  </si>
-  <si>
-    <t>1 016,00 zł</t>
-  </si>
-  <si>
-    <t>1 321,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 286,00 zł</t>
-  </si>
-  <si>
-    <t>1 620,00 zł</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 327,00 zł</t>
-  </si>
-  <si>
-    <t>1 592,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>961,00 zł</t>
-  </si>
-  <si>
-    <t>1 192,00 zł</t>
-  </si>
-  <si>
-    <t>1 296,00 zł</t>
-  </si>
-  <si>
-    <t>1 581,00 zł</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>571,00 zł</t>
-  </si>
-  <si>
-    <t>634,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>629,00 zł</t>
-  </si>
-  <si>
-    <t>692,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
+    <t>851,00 zł</t>
+  </si>
+  <si>
+    <t>1 079,00 zł</t>
+  </si>
+  <si>
+    <t>1 392,00 zł</t>
+  </si>
+  <si>
+    <t>1 195,00 zł</t>
+  </si>
+  <si>
+    <t>1 446,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1464,16 +1449,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
         <v>6</v>
@@ -1485,19 +1470,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1506,19 +1491,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3">
         <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1530,10 +1515,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
         <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>5</v>
@@ -1548,19 +1533,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
         <v>4</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1569,19 +1554,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
-        <v>6</v>
-      </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1590,7 +1575,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
@@ -1599,10 +1584,10 @@
         <v>6</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1614,13 +1599,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
         <v>6</v>
       </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
       <c r="E24" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3">
         <v>2</v>
@@ -1632,19 +1617,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="3">
         <v>4</v>
       </c>
       <c r="F25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1653,19 +1638,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
         <v>2</v>
       </c>
-      <c r="D26" s="3">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4</v>
-      </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1674,10 +1659,10 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
         <v>4</v>
@@ -1695,19 +1680,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3">
         <v>6</v>
-      </c>
-      <c r="C28" s="3">
-        <v>4</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1829,7 +1814,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1844,7 +1829,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1874,7 +1859,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1889,7 +1874,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1904,7 +1889,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2021,7 +2006,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2033,7 +2018,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2042,34 +2027,34 @@
         <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2077,7 +2062,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -2089,7 +2074,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2114,10 +2099,10 @@
         <v>65</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2126,10 +2111,10 @@
         <v>67</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2138,31 +2123,31 @@
         <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3">
         <v>32</v>
@@ -2173,7 +2158,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -2185,7 +2170,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2210,10 +2195,10 @@
         <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2222,10 +2207,10 @@
         <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2234,46 +2219,46 @@
         <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2295,10 +2280,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A21" sqref="A21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2319,53 +2304,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2377,7 +2362,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>24</v>
@@ -2386,40 +2371,40 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>6</v>
-      </c>
       <c r="I12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>3</v>
@@ -2430,28 +2415,28 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
         <v>4</v>
       </c>
-      <c r="E13" s="3">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3">
-        <v>4</v>
-      </c>
-      <c r="H13" s="3">
-        <v>5</v>
-      </c>
       <c r="I13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
         <v>3</v>
@@ -2462,31 +2447,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5</v>
-      </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3">
         <v>6</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2494,31 +2479,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" s="3">
         <v>3</v>
       </c>
       <c r="J15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2526,31 +2511,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="3">
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
         <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>6</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3">
-        <v>4</v>
-      </c>
-      <c r="I16" s="3">
-        <v>6</v>
-      </c>
-      <c r="J16" s="3">
-        <v>2</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2558,31 +2543,31 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
         <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
       </c>
       <c r="H17" s="3">
         <v>3</v>
       </c>
       <c r="I17" s="3">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
         <v>4</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2590,54 +2575,70 @@
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="3">
-        <v>4</v>
-      </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
       </c>
       <c r="H18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2651,11 +2652,27 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2668,10 +2685,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A29" sqref="A29:B31"/>
+      <selection activeCell="A26" sqref="A26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2683,7 +2700,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2693,232 +2710,199 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="B26" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
+      <c r="B27" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B28" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2936,10 +2920,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A46" sqref="A46:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2955,7 +2939,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2965,75 +2949,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3041,22 +3025,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3064,22 +3048,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3087,22 +3071,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3110,22 +3094,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3133,22 +3117,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3156,22 +3140,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3179,22 +3163,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="F22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3202,22 +3186,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3225,22 +3209,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3248,22 +3232,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3271,22 +3255,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3294,22 +3278,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3317,22 +3301,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3340,10 +3324,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>252</v>
@@ -3355,7 +3339,7 @@
         <v>254</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3363,22 +3347,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3386,22 +3370,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3409,22 +3393,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3432,22 +3416,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3455,22 +3439,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3478,22 +3462,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3501,22 +3485,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3524,22 +3508,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3547,22 +3531,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3570,22 +3554,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3593,22 +3577,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>286</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3616,10 +3600,10 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>287</v>
@@ -3628,10 +3612,10 @@
         <v>288</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3639,90 +3623,67 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
         <v>291</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>174</v>
+      <c r="B46" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>300</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_049.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_049.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>ZESTAW ZADAŃ NR 49 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 49 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>3,50</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>13,60</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>6,60</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,80</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,40</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,20</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>9,81</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>30,57</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>8,97</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>6,80</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>3,17</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>30,42</t>
-  </si>
-  <si>
-    <t>28,76</t>
-  </si>
-  <si>
-    <t>6,45</t>
-  </si>
-  <si>
-    <t>28,44</t>
-  </si>
-  <si>
-    <t>5,81</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>2,95</t>
-  </si>
-  <si>
-    <t>19,61</t>
-  </si>
-  <si>
-    <t>17,07</t>
-  </si>
-  <si>
-    <t>21,48</t>
-  </si>
-  <si>
-    <t>3,18</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -424,108 +346,72 @@
     <t>05.07.2000</t>
   </si>
   <si>
-    <t>4 547,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Król</t>
   </si>
   <si>
     <t>15.05.1978</t>
   </si>
   <si>
-    <t>4 922,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Wójcik</t>
   </si>
   <si>
     <t>16.02.1976</t>
   </si>
   <si>
-    <t>9 190,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Kowalski</t>
   </si>
   <si>
     <t>25.10.1993</t>
   </si>
   <si>
-    <t>4 781,00 zł</t>
-  </si>
-  <si>
     <t>Filip Mazur</t>
   </si>
   <si>
     <t>26.12.2002</t>
   </si>
   <si>
-    <t>5 459,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Wojciechowski</t>
   </si>
   <si>
     <t>17.12.1998</t>
   </si>
   <si>
-    <t>14 500,00 zł</t>
-  </si>
-  <si>
     <t>Maja Olszewska</t>
   </si>
   <si>
     <t>06.03.1998</t>
   </si>
   <si>
-    <t>9 456,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Kamiński</t>
   </si>
   <si>
     <t>14.05.1997</t>
   </si>
   <si>
-    <t>12 468,00 zł</t>
-  </si>
-  <si>
     <t>Maja Sadowska</t>
   </si>
   <si>
     <t>18.04.1979</t>
   </si>
   <si>
-    <t>10 370,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Sikorska</t>
   </si>
   <si>
     <t>09.02.1975</t>
   </si>
   <si>
-    <t>11 177,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Urbaniak</t>
   </si>
   <si>
     <t>08.06.1984</t>
   </si>
   <si>
-    <t>8 119,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Kwiatkowski</t>
   </si>
   <si>
     <t>02.06.1997</t>
   </si>
   <si>
-    <t>6 758,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -538,9 +424,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -601,12 +484,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 316,00 zł</t>
-  </si>
-  <si>
-    <t>1 527,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -616,12 +493,6 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 421,00 zł</t>
-  </si>
-  <si>
-    <t>1 563,00 zł</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
@@ -631,12 +502,6 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 359,00 zł</t>
-  </si>
-  <si>
-    <t>1 767,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -646,12 +511,6 @@
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 397,00 zł</t>
-  </si>
-  <si>
-    <t>1 872,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -664,24 +523,12 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>892,00 zł</t>
-  </si>
-  <si>
-    <t>1 008,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>1 453,00 zł</t>
-  </si>
-  <si>
-    <t>1 773,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -694,24 +541,12 @@
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>1 224,00 zł</t>
-  </si>
-  <si>
-    <t>1 628,00 zł</t>
-  </si>
-  <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 389,00 zł</t>
-  </si>
-  <si>
-    <t>1 583,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -724,24 +559,12 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 067,00 zł</t>
-  </si>
-  <si>
-    <t>1 451,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
     <t>pomorskie</t>
   </si>
   <si>
-    <t>1 016,00 zł</t>
-  </si>
-  <si>
-    <t>1 138,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
@@ -751,148 +574,52 @@
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 494,00 zł</t>
-  </si>
-  <si>
-    <t>1 882,00 zł</t>
-  </si>
-  <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 183,00 zł</t>
-  </si>
-  <si>
-    <t>1 550,00 zł</t>
-  </si>
-  <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 013,00 zł</t>
-  </si>
-  <si>
-    <t>1 266,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
-    <t>1 340,00 zł</t>
-  </si>
-  <si>
-    <t>1 702,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 353,00 zł</t>
-  </si>
-  <si>
-    <t>1 827,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>1 070,00 zł</t>
-  </si>
-  <si>
-    <t>1 305,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
-    <t>1 123,00 zł</t>
-  </si>
-  <si>
-    <t>1 561,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 365,00 zł</t>
-  </si>
-  <si>
-    <t>1 747,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
-    <t>537,00 zł</t>
-  </si>
-  <si>
-    <t>709,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
-    <t>1 222,00 zł</t>
-  </si>
-  <si>
-    <t>1 589,00 zł</t>
-  </si>
-  <si>
-    <t>1 006,00 zł</t>
-  </si>
-  <si>
-    <t>1 127,00 zł</t>
-  </si>
-  <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 128,00 zł</t>
-  </si>
-  <si>
-    <t>1 212,00 zł</t>
-  </si>
-  <si>
-    <t>1 697,00 zł</t>
-  </si>
-  <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 076,00 zł</t>
-  </si>
-  <si>
-    <t>1 399,00 zł</t>
-  </si>
-  <si>
     <t>lubelskie</t>
-  </si>
-  <si>
-    <t>851,00 zł</t>
-  </si>
-  <si>
-    <t>1 079,00 zł</t>
-  </si>
-  <si>
-    <t>1 392,00 zł</t>
-  </si>
-  <si>
-    <t>1 195,00 zł</t>
-  </si>
-  <si>
-    <t>1 446,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -914,7 +641,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -971,14 +700,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -989,8 +718,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1021,30 +750,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,7 +1077,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1422,25 +1152,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1463,7 +1193,7 @@
       <c r="F17" s="3">
         <v>6</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1484,7 +1214,7 @@
       <c r="F18" s="3">
         <v>6</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1505,7 +1235,7 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1526,7 +1256,7 @@
       <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1547,7 +1277,7 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1568,7 +1298,7 @@
       <c r="F22" s="3">
         <v>5</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1589,7 +1319,7 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1610,7 +1340,7 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1631,7 +1361,7 @@
       <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1652,7 +1382,7 @@
       <c r="F26" s="3">
         <v>5</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1673,7 +1403,7 @@
       <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1694,27 +1424,17 @@
       <c r="F28" s="3">
         <v>6</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1748,7 +1468,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1768,7 +1488,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1778,29 +1498,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1808,99 +1528,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3.5</v>
       </c>
       <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>13.6</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6.6</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5.8</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.4</v>
       </c>
       <c r="D17" s="3">
         <v>9</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2.2</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1933,7 +1653,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1958,113 +1678,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>9.81</v>
       </c>
       <c r="C15" s="3">
         <v>48</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>30.57</v>
       </c>
       <c r="C16" s="3">
         <v>30</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>8.97</v>
       </c>
       <c r="C17" s="3">
         <v>39</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>6.8</v>
       </c>
       <c r="C18" s="3">
         <v>21</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3.17</v>
       </c>
       <c r="C19" s="3">
         <v>25</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2073,94 +1793,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>30.42</v>
       </c>
       <c r="C24" s="3">
         <v>40</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>28.76</v>
       </c>
       <c r="C25" s="3">
         <v>16</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>6.45</v>
       </c>
       <c r="C26" s="3">
         <v>6</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>28.44</v>
       </c>
       <c r="C27" s="3">
         <v>48</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>5.81</v>
       </c>
       <c r="C28" s="3">
         <v>32</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2169,98 +1889,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2.95</v>
       </c>
       <c r="C33" s="3">
         <v>47</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>19.61</v>
       </c>
       <c r="C34" s="3">
         <v>9</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>17.07</v>
       </c>
       <c r="C35" s="3">
         <v>46</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>21.48</v>
       </c>
       <c r="C36" s="3">
         <v>40</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>3.18</v>
       </c>
       <c r="C37" s="3">
         <v>41</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2283,7 +2003,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2303,90 +2023,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
@@ -2409,16 +2129,16 @@
       <c r="J12" s="3">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2441,16 +2161,16 @@
       <c r="J13" s="3">
         <v>3</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -2473,16 +2193,16 @@
       <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -2505,16 +2225,16 @@
       <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -2537,16 +2257,16 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
@@ -2569,16 +2289,16 @@
       <c r="J17" s="3">
         <v>4</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
@@ -2601,16 +2321,16 @@
       <c r="J18" s="3">
         <v>5</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -2633,40 +2353,40 @@
       <c r="J19" s="3">
         <v>5</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2699,211 +2419,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>123</v>
+      <c r="A1" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>131</v>
+      <c r="A10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4547</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4922</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
+      </c>
+      <c r="C13" s="7">
+        <v>9190</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4781</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5459</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
+      </c>
+      <c r="C16" s="7">
+        <v>14500</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
+      </c>
+      <c r="C17" s="7">
+        <v>9456</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12468</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
+      </c>
+      <c r="C19" s="7">
+        <v>10370</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="C20" s="7">
+        <v>11177</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8119</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
+      </c>
+      <c r="C22" s="7">
+        <v>6758</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
-        <v>168</v>
+      <c r="A25" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2938,86 +2652,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>173</v>
+      <c r="A1" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>190</v>
+      <c r="A15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3025,22 +2739,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>194</v>
+        <v>153</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1316</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1527</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3048,22 +2762,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1421</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1563</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3071,22 +2785,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1359</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1767</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3094,22 +2808,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1397</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1872</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3117,22 +2831,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
+      </c>
+      <c r="D20" s="7">
+        <v>892</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1008</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3140,22 +2854,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>219</v>
+        <v>166</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1453</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1773</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3163,22 +2877,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1224</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1628</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3186,22 +2900,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1389</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1583</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3209,22 +2923,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1067</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1451</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3232,22 +2946,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>239</v>
+        <v>156</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1016</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1138</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3255,22 +2969,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1494</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1882</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3278,22 +2992,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>247</v>
+        <v>184</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1183</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1550</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3301,22 +3015,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>250</v>
+        <v>185</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1013</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1266</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3324,22 +3038,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>253</v>
+        <v>159</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1340</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1702</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3347,22 +3061,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>257</v>
+        <v>188</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1353</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1827</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3370,22 +3084,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1070</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1305</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="G31" s="3" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3393,22 +3107,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>265</v>
+        <v>156</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1123</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1561</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3416,22 +3130,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>269</v>
+        <v>194</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1365</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1747</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3439,22 +3153,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>272</v>
+        <v>178</v>
+      </c>
+      <c r="D34" s="7">
+        <v>537</v>
+      </c>
+      <c r="E34" s="7">
+        <v>709</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3462,22 +3176,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>275</v>
+        <v>162</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1222</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1589</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3485,22 +3199,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>277</v>
+        <v>194</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1006</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1127</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3508,22 +3222,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>279</v>
+        <v>197</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1016</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1128</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3531,22 +3245,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>281</v>
+        <v>153</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1212</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1697</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3554,22 +3268,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>284</v>
+        <v>198</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1076</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1399</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>285</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3577,22 +3291,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>286</v>
+        <v>159</v>
+      </c>
+      <c r="D40" s="7">
+        <v>709</v>
+      </c>
+      <c r="E40" s="7">
+        <v>851</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>285</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3600,22 +3314,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>288</v>
+        <v>183</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1079</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1392</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3623,68 +3337,58 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>290</v>
+        <v>188</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1195</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1446</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>168</v>
+      <c r="A45" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>291</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>292</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>293</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>294</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>295</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_049.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_049.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>ZESTAW ZADAŃ NR 49 - CZĘŚĆ 1</t>
   </si>
@@ -61,357 +62,327 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Zuzanna Borkowska</t>
-  </si>
-  <si>
-    <t>Kacper Grabowski</t>
+    <t>Amelia Olszewska</t>
+  </si>
+  <si>
+    <t>Mikołaj Woźniak</t>
   </si>
   <si>
     <t>Jakub Kwiatkowski</t>
   </si>
   <si>
+    <t>Antoni Woźniak</t>
+  </si>
+  <si>
+    <t>Emilia Sikorska</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 49 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 49 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Szymański</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Urbaniak</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Kamiński</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Jakub Nowak</t>
+  </si>
+  <si>
     <t>Anna Olszewska</t>
   </si>
   <si>
-    <t>Julia Borkowska</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 49 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 49 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Sadowska</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Kamiński</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Woźniak</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Grabowski</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Natalia Rogalska</t>
-  </si>
-  <si>
-    <t>05.07.2000</t>
-  </si>
-  <si>
-    <t>Oliwia Król</t>
-  </si>
-  <si>
-    <t>15.05.1978</t>
-  </si>
-  <si>
-    <t>Jakub Wójcik</t>
-  </si>
-  <si>
-    <t>16.02.1976</t>
-  </si>
-  <si>
-    <t>Wojciech Kowalski</t>
-  </si>
-  <si>
-    <t>25.10.1993</t>
-  </si>
-  <si>
-    <t>Filip Mazur</t>
-  </si>
-  <si>
-    <t>26.12.2002</t>
-  </si>
-  <si>
-    <t>Antoni Wojciechowski</t>
-  </si>
-  <si>
-    <t>17.12.1998</t>
-  </si>
-  <si>
-    <t>Maja Olszewska</t>
-  </si>
-  <si>
-    <t>06.03.1998</t>
-  </si>
-  <si>
-    <t>Jakub Kamiński</t>
-  </si>
-  <si>
-    <t>14.05.1997</t>
-  </si>
-  <si>
-    <t>Maja Sadowska</t>
-  </si>
-  <si>
-    <t>18.04.1979</t>
+    <t>Emilia Olszewska</t>
+  </si>
+  <si>
+    <t>Anna Bednarska</t>
+  </si>
+  <si>
+    <t>Oliwia Olszewska</t>
+  </si>
+  <si>
+    <t>Antoni Kamiński</t>
+  </si>
+  <si>
+    <t>Natalia Zawadzka</t>
+  </si>
+  <si>
+    <t>Hanna Borkowska</t>
+  </si>
+  <si>
+    <t>Szymon Szymański</t>
+  </si>
+  <si>
+    <t>Oliwia Malinowska</t>
+  </si>
+  <si>
+    <t>Kacper Wojciechowski</t>
+  </si>
+  <si>
+    <t>Emilia Jaworska</t>
+  </si>
+  <si>
+    <t>Adam Wiśniewski</t>
   </si>
   <si>
     <t>Hanna Sikorska</t>
   </si>
   <si>
-    <t>09.02.1975</t>
-  </si>
-  <si>
-    <t>Amelia Urbaniak</t>
-  </si>
-  <si>
-    <t>08.06.1984</t>
-  </si>
-  <si>
-    <t>Wojciech Kwiatkowski</t>
-  </si>
-  <si>
-    <t>02.06.1997</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -424,7 +395,70 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Maja Czarnecka</t>
+  </si>
+  <si>
+    <t>Jan Grabowski</t>
+  </si>
+  <si>
+    <t>Julia Czarnecka</t>
+  </si>
+  <si>
+    <t>Hanna Wilk</t>
+  </si>
+  <si>
+    <t>Filip Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Adam Nowak</t>
+  </si>
+  <si>
+    <t>Maja Lis</t>
+  </si>
+  <si>
+    <t>Mikołaj Krawczyk</t>
+  </si>
+  <si>
+    <t>Anna Maciejewska</t>
+  </si>
+  <si>
+    <t>Adam Zieliński</t>
+  </si>
+  <si>
+    <t>Oliwia Piekarska</t>
+  </si>
+  <si>
+    <t>Julia Kubiak</t>
+  </si>
+  <si>
+    <t>Jan Mazur</t>
+  </si>
+  <si>
+    <t>Filip Wojciechowski</t>
+  </si>
+  <si>
+    <t>Adam Lewandowski</t>
+  </si>
+  <si>
+    <t>Hanna Zawadzka</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -478,148 +512,145 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
     <t>styczeń</t>
   </si>
   <si>
-    <t>Kamera internetowa</t>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
   </si>
   <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
-    <t>podlaskie</t>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
   </si>
   <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
   </si>
   <si>
     <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -691,7 +722,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,12 +745,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -750,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -761,13 +786,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1074,7 +1098,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1179,19 +1203,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1200,19 +1224,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
       </c>
       <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
         <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1221,19 +1245,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1242,19 +1266,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
       </c>
       <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
         <v>2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1266,13 +1290,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>6</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
@@ -1284,19 +1308,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
         <v>5</v>
       </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
       <c r="E22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1305,16 +1329,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
         <v>6</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
@@ -1326,16 +1350,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3">
         <v>3</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>6</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
       </c>
       <c r="F24" s="3">
         <v>2</v>
@@ -1347,19 +1371,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1368,19 +1392,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
         <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1389,19 +1413,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1413,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D28" s="3">
         <v>3</v>
@@ -1422,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1435,6 +1459,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1468,7 +1498,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1488,7 +1518,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1498,29 +1528,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1528,99 +1558,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3.5</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.7</v>
       </c>
       <c r="D13" s="3">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>13.6</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5.1</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>6.6</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.9</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>5.8</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4.9</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1.4</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6.9</v>
       </c>
       <c r="D17" s="3">
         <v>9</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2.2</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1637,10 +1667,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1653,7 +1683,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1678,27 +1708,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1706,85 +1736,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>9.81</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>13.76</v>
       </c>
       <c r="C15" s="3">
-        <v>48</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>30.57</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>8.86</v>
       </c>
       <c r="C16" s="3">
-        <v>30</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>8.97</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>21.59</v>
       </c>
       <c r="C17" s="3">
-        <v>39</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>6.8</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>14.029999999999999</v>
       </c>
       <c r="C18" s="3">
-        <v>21</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>3.17</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>30.02</v>
       </c>
       <c r="C19" s="3">
-        <v>25</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1793,8 +1823,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1802,85 +1832,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>30.42</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>25.3</v>
       </c>
       <c r="C24" s="3">
-        <v>40</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>28.76</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>12.61</v>
       </c>
       <c r="C25" s="3">
-        <v>16</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>6.45</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>19.66</v>
       </c>
       <c r="C26" s="3">
-        <v>6</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>28.44</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>24.26</v>
       </c>
       <c r="C27" s="3">
-        <v>48</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>5.81</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>10.84</v>
       </c>
       <c r="C28" s="3">
-        <v>32</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1889,8 +1919,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1898,89 +1928,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>2.95</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>21.49</v>
       </c>
       <c r="C33" s="3">
-        <v>47</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>19.61</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>15.93</v>
       </c>
       <c r="C34" s="3">
         <v>9</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>17.07</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>26.010000000000002</v>
       </c>
       <c r="C35" s="3">
-        <v>46</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>21.48</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>6</v>
       </c>
       <c r="C36" s="3">
-        <v>40</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>3.18</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>12.31</v>
       </c>
       <c r="C37" s="3">
-        <v>41</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2023,111 +2061,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
         <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2138,25 +2176,25 @@
         <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
         <v>4</v>
       </c>
       <c r="I13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
         <v>3</v>
@@ -2167,31 +2205,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>6</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2199,31 +2237,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3">
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2231,31 +2269,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
       </c>
       <c r="G16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2263,13 +2301,13 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
@@ -2278,16 +2316,16 @@
         <v>4</v>
       </c>
       <c r="G17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
         <v>3</v>
       </c>
-      <c r="I17" s="3">
-        <v>5</v>
-      </c>
       <c r="J17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2295,31 +2333,31 @@
     <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
         <v>6</v>
       </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
       <c r="H18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -2327,31 +2365,31 @@
     <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
       </c>
       <c r="G19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
       </c>
       <c r="I19" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -2405,10 +2443,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A26" sqref="A26:B28"/>
+      <selection activeCell="A28" sqref="A28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2419,12 +2457,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2468,156 +2506,178 @@
       <c r="A11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="7">
-        <v>4547</v>
+      <c r="B11" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C11" s="8">
+        <v>10256</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="7">
-        <v>4922</v>
+        <v>107</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C12" s="8">
+        <v>8052</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="7">
-        <v>9190</v>
+        <v>108</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C13" s="8">
+        <v>12796</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4781</v>
+        <v>109</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C14" s="8">
+        <v>9950</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="7">
-        <v>5459</v>
+        <v>110</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4423</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="7">
-        <v>14500</v>
+        <v>111</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5727</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="7">
-        <v>9456</v>
+        <v>112</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C17" s="8">
+        <v>11671</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="7">
-        <v>12468</v>
+        <v>113</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C18" s="8">
+        <v>4486</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="7">
-        <v>10370</v>
+        <v>114</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C19" s="8">
+        <v>14497</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="7">
-        <v>11177</v>
+        <v>115</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C20" s="8">
+        <v>11113</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="7">
-        <v>8119</v>
+        <v>116</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C21" s="8">
+        <v>9290</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="7">
-        <v>6758</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C23" s="8">
+        <v>5686</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C24" s="8">
+        <v>5557</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="6"/>
+      <c r="A27" s="16" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2634,10 +2694,230 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A46" sqref="A46:B50"/>
+      <selection activeCell="A10" sqref="A10:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="3">
+        <v>160</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="3">
+        <v>167</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="3">
+        <v>121</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="3">
+        <v>188</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="3">
+        <v>100</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="3">
+        <v>159</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="3">
+        <v>200</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3">
+        <v>170</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="3">
+        <v>198</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="3">
+        <v>98</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="3">
+        <v>118</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="3">
+        <v>102</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="3">
+        <v>168</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="3">
+        <v>123</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="3">
+        <v>122</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="3">
+        <v>189</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="3">
+        <v>138</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A48" sqref="A48:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2652,86 +2932,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>134</v>
+      <c r="A1" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2739,22 +3019,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1316</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1527</v>
+        <v>164</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1498</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2007</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2762,22 +3042,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1421</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1563</v>
+        <v>167</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1312</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1706</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2785,22 +3065,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1359</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1767</v>
+        <v>170</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1217</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1460</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2808,22 +3088,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1397</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1872</v>
+        <v>174</v>
+      </c>
+      <c r="D19" s="8">
+        <v>720</v>
+      </c>
+      <c r="E19" s="8">
+        <v>806</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2831,22 +3111,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="7">
-        <v>892</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1008</v>
+        <v>177</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1168</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1588</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2854,22 +3134,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1453</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1773</v>
+        <v>181</v>
+      </c>
+      <c r="D21" s="8">
+        <v>969</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1318</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2877,22 +3157,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1224</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1628</v>
+        <v>184</v>
+      </c>
+      <c r="D22" s="8">
+        <v>785</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1005</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2900,22 +3180,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1389</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1583</v>
+        <v>186</v>
+      </c>
+      <c r="D23" s="8">
+        <v>519</v>
+      </c>
+      <c r="E23" s="8">
+        <v>716</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2923,22 +3203,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1067</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1451</v>
+        <v>164</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1414</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1598</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2946,22 +3226,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1016</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1138</v>
+        <v>170</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1500</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1995</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2969,22 +3249,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1494</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1882</v>
+        <v>170</v>
+      </c>
+      <c r="D26" s="8">
+        <v>781</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1086</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2992,22 +3272,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1183</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1550</v>
+        <v>193</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1299</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1650</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3015,22 +3295,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1013</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1266</v>
+        <v>195</v>
+      </c>
+      <c r="D28" s="8">
+        <v>832</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1073</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3038,22 +3318,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1340</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1702</v>
+        <v>198</v>
+      </c>
+      <c r="D29" s="8">
+        <v>567</v>
+      </c>
+      <c r="E29" s="8">
+        <v>709</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3061,22 +3341,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1353</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1827</v>
+        <v>199</v>
+      </c>
+      <c r="D30" s="8">
+        <v>935</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1038</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3084,22 +3364,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1070</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1305</v>
+        <v>200</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1122</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1380</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3107,22 +3387,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1123</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1561</v>
+        <v>174</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2055</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3130,22 +3410,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1365</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1747</v>
+        <v>164</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1141</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1278</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3153,22 +3433,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="7">
-        <v>537</v>
-      </c>
-      <c r="E34" s="7">
-        <v>709</v>
+        <v>203</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1039</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1423</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3176,22 +3456,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1222</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1589</v>
+        <v>174</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1342</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1476</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3199,22 +3479,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1006</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1127</v>
+        <v>170</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1423</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1921</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3222,22 +3502,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1016</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1128</v>
+        <v>167</v>
+      </c>
+      <c r="D37" s="8">
+        <v>648</v>
+      </c>
+      <c r="E37" s="8">
+        <v>836</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3245,22 +3525,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1212</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1697</v>
+        <v>205</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1476</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2066</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3268,22 +3548,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1076</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1399</v>
+        <v>200</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1249</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1524</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3291,22 +3571,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="7">
-        <v>709</v>
-      </c>
-      <c r="E40" s="7">
-        <v>851</v>
+        <v>170</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1430</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1916</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3314,22 +3594,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1079</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1392</v>
+        <v>195</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1133</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1314</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3337,58 +3617,104 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1195</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1446</v>
+        <v>205</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1352</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1622</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>200</v>
-      </c>
-      <c r="B46" s="6"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1068</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1314</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1479</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1686</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>201</v>
-      </c>
-      <c r="B47" s="6"/>
+      <c r="A47" s="16" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>202</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>203</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>204</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>214</v>
+      </c>
+      <c r="B52" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
